--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Project\DebugWriter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D58B06E-01B6-4BD8-B4C5-5B2C8FD8C283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D93687-196C-4F7D-8C7E-F66CABDCBF6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{374D20DE-F6D3-471B-AE35-77655FDEA138}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Mode</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,141 @@
   </si>
   <si>
     <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Debug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Seccess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル読み込み失敗</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル書き込み失敗</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値が不正です</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイスが存在しません</t>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化開始</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期化完了</t>
+    <rPh sb="0" eb="3">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン処理開始</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン処理終了</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Release</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム開始</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム終了</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -412,16 +547,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FAC27F-9EFA-4B6A-B532-DDA7B3200E4D}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -436,6 +571,171 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2004</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>2005</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>9000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>9001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
